--- a/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>65,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>33,8%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 17,38</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 20,5</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,84</t>
+          <t>0,0; 82,89</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,24; 35,38</t>
+          <t>5,41; 17,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 30,87</t>
+          <t>6,63; 20,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,94; 28,7</t>
+          <t>6,94; 16,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>2,63; 16,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>6,87; 23,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,89</t>
+          <t>6,55; 17,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>21,08%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 16,39</t>
+          <t>13,24; 35,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 23,69</t>
+          <t>11,52; 30,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 17,51</t>
+          <t>14,94; 28,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 23,68</t>
+          <t>4,62; 22,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 19,53</t>
+          <t>3,17; 19,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 17,73</t>
+          <t>5,63; 18,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 17,38</t>
+          <t>5,35; 17,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 20,5</t>
+          <t>6,89; 22,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,84</t>
+          <t>7,47; 16,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 16,39</t>
+          <t>2,67; 17,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 23,69</t>
+          <t>6,51; 23,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 17,51</t>
+          <t>6,37; 17,3</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 35,38</t>
+          <t>13,17; 35,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,52; 30,87</t>
+          <t>10,65; 29,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 28,7</t>
+          <t>13,74; 28,21</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 17,39</t>
+          <t>9,65; 17,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 19,16</t>
+          <t>9,9; 19,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,48; 16,63</t>
+          <t>10,77; 16,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -589,14 +589,14 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,89</t>
+          <t>0,0; 82,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 22,81</t>
+          <t>4,7; 22,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 19,07</t>
+          <t>3,07; 20,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 18,27</t>
+          <t>5,46; 17,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 17,52</t>
+          <t>5,59; 17,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 22,37</t>
+          <t>6,72; 21,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,95</t>
+          <t>7,26; 16,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 17,8</t>
+          <t>2,53; 16,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 23,27</t>
+          <t>6,64; 23,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 17,3</t>
+          <t>6,5; 18,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,17; 35,59</t>
+          <t>13,91; 35,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 29,16</t>
+          <t>10,15; 29,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 28,21</t>
+          <t>14,63; 29,45</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,89</t>
+          <t>8,79; 17,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,9; 19,06</t>
+          <t>10,09; 18,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,64</t>
+          <t>10,78; 16,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,18 +497,18 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han vivido situaciones de cyberbulling en su colegio</t>
+          <t>Menores en cuyo colegio/instituto se han producido situaciones de cyberbulling</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0; 3,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,36</t>
+          <t>0; 1,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 22,71</t>
+          <t>0; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 20,51</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 17,61</t>
+          <t>0; 0,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 17,79</t>
+          <t>0; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 21,19</t>
+          <t>0; 2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 16,79</t>
+          <t>0; 1,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 16,76</t>
+          <t>0; 2,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 23,75</t>
+          <t>0; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 18,01</t>
+          <t>0; 1,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,91; 35,44</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,15; 29,62</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 29,45</t>
+          <t>0; 0,33</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,97%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,79; 17,36</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 18,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,78; 16,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
